--- a/CAMS/DOC/bg_obs_catch_columns.xlsx
+++ b/CAMS/DOC/bg_obs_catch_columns.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.galuardi\Documents\GitHub\discaRd\CAMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjamin.galuardi\Documents\GitHub\discaRd\CAMS\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="obs_catch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
   <si>
     <t>PERMIT</t>
   </si>
@@ -34,12 +34,6 @@
     <t>VARCHAR2(6)</t>
   </si>
   <si>
-    <t>DMIS_TRIP_ID</t>
-  </si>
-  <si>
-    <t>VARCHAR2(60)</t>
-  </si>
-  <si>
     <t>YEAR</t>
   </si>
   <si>
@@ -61,18 +55,9 @@
     <t>DOCID</t>
   </si>
   <si>
-    <t>VARCHAR2(40)</t>
-  </si>
-  <si>
     <t>VTRSERNO</t>
   </si>
   <si>
-    <t>VARCHAR2(13)</t>
-  </si>
-  <si>
-    <t>GEARCODE</t>
-  </si>
-  <si>
     <t>VARCHAR2(3)</t>
   </si>
   <si>
@@ -85,54 +70,18 @@
     <t>NEGEAR</t>
   </si>
   <si>
-    <t>MESH</t>
-  </si>
-  <si>
-    <t>NUMBER(6,1)</t>
-  </si>
-  <si>
     <t>MESHGROUP</t>
   </si>
   <si>
     <t>AREA</t>
   </si>
   <si>
-    <t>CAREA</t>
-  </si>
-  <si>
     <t>SUBTRIP_KALL</t>
   </si>
   <si>
-    <t>SECTOR_ID</t>
-  </si>
-  <si>
-    <t>VARCHAR2(50)</t>
-  </si>
-  <si>
     <t>ACTIVITY_CODE_1</t>
   </si>
   <si>
-    <t>VARCHAR2(18)</t>
-  </si>
-  <si>
-    <t>ACTIVITY_CODE_2</t>
-  </si>
-  <si>
-    <t>ACTIVITY_CODE_3</t>
-  </si>
-  <si>
-    <t>PERMIT_EFP_1</t>
-  </si>
-  <si>
-    <t>PERMIT_EFP_2</t>
-  </si>
-  <si>
-    <t>PERMIT_EFP_3</t>
-  </si>
-  <si>
-    <t>PERMIT_EFP_4</t>
-  </si>
-  <si>
     <t>REDFISH_EXEMPTION</t>
   </si>
   <si>
@@ -148,9 +97,6 @@
     <t>TRIPCATEGORY</t>
   </si>
   <si>
-    <t>CHAR(3)</t>
-  </si>
-  <si>
     <t>ACCESSAREA</t>
   </si>
   <si>
@@ -160,9 +106,6 @@
     <t>LINK1</t>
   </si>
   <si>
-    <t>VARCHAR2(35)</t>
-  </si>
-  <si>
     <t>OBSVTR</t>
   </si>
   <si>
@@ -205,9 +148,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CAMS unique trip identifier</t>
-  </si>
-  <si>
     <t>Calendar Year</t>
   </si>
   <si>
@@ -220,51 +160,12 @@
     <t>1 (Jan - June) or 2 (July-Dec)</t>
   </si>
   <si>
-    <t>VTR Document ID</t>
-  </si>
-  <si>
-    <t>VTR serial number; identifies subtrip</t>
-  </si>
-  <si>
-    <t>three letter VTR gear code</t>
-  </si>
-  <si>
     <t>Gear description</t>
   </si>
   <si>
-    <t>two digit gearcode; used by NEFOP</t>
-  </si>
-  <si>
-    <t>VTR mesh size in inches</t>
-  </si>
-  <si>
-    <t>Categoried mesh: sm, lg, xlg, na</t>
-  </si>
-  <si>
-    <t>statistical area from VTR</t>
-  </si>
-  <si>
-    <t>Calculated Statisticl area from VTR position</t>
-  </si>
-  <si>
-    <t>Total live pounds from subtrip</t>
-  </si>
-  <si>
-    <t>Groundfish sector membership</t>
-  </si>
-  <si>
     <t>VMS declaration</t>
   </si>
   <si>
-    <t>VMS declaration (if more than 1)</t>
-  </si>
-  <si>
-    <t>VMS declaration (if more than 2)</t>
-  </si>
-  <si>
-    <t>EFP trip fishing under</t>
-  </si>
-  <si>
     <t>Exemption fishing under</t>
   </si>
   <si>
@@ -506,6 +407,153 @@
   </si>
   <si>
     <t>see OBDBS</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3 BYTE)</t>
+  </si>
+  <si>
+    <t>CAMSID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(75 BYTE)</t>
+  </si>
+  <si>
+    <t>CAMS_SUBTRIP</t>
+  </si>
+  <si>
+    <t>VARCHAR2(78 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1 BYTE)</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50 BYTE)</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>ITIS_TSN</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4000 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(19 BYTE)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2 BYTE)</t>
+  </si>
+  <si>
+    <t>NUMBER(2,0)</t>
+  </si>
+  <si>
+    <t>NVTR_LINK1</t>
+  </si>
+  <si>
+    <t>VARCHAR2(6 BYTE)</t>
+  </si>
+  <si>
+    <t>SECGEAR_MAPPED</t>
+  </si>
+  <si>
+    <t>VARCHAR2(255 BYTE)</t>
+  </si>
+  <si>
+    <t>SECTID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(16 BYTE)</t>
+  </si>
+  <si>
+    <t>NUMBER(4,0)</t>
+  </si>
+  <si>
+    <t>Scallop Access Area, only relevant for scallop trips</t>
+  </si>
+  <si>
+    <t>statistical area from CAMS_LANDINGS</t>
+  </si>
+  <si>
+    <t>CAMS unique identifier</t>
+  </si>
+  <si>
+    <t>Catenation of CAMSID and SUBTRIP in CAMS_LANDINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundfish specific stratification </t>
+  </si>
+  <si>
+    <t>Species discard as recorded on the subtrip</t>
+  </si>
+  <si>
+    <t>Species discard as prorated by KALL on unobserved hauls</t>
+  </si>
+  <si>
+    <t>VTR DOCID</t>
+  </si>
+  <si>
+    <t>EM program, groundfish trips only</t>
+  </si>
+  <si>
+    <t>Groundfish trip, 0/1</t>
+  </si>
+  <si>
+    <t>Species IT IS code</t>
+  </si>
+  <si>
+    <t>two digit gearcode</t>
+  </si>
+  <si>
+    <t>Number of VTRs per observed trip (Link1)</t>
+  </si>
+  <si>
+    <t>Flag for whether the haul was observed</t>
+  </si>
+  <si>
+    <t>Observer total pounds kept per haul, includes unobserved hauls</t>
+  </si>
+  <si>
+    <t>Observer kept pounds for unobserved hauls</t>
+  </si>
+  <si>
+    <t>ratio of total kept_all / observed kept all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gearmapping used for matching subtrip to LINK3; uses </t>
+  </si>
+  <si>
+    <t>Sector ID of groundfish trip</t>
+  </si>
+  <si>
+    <t>Kept all of subtrip from CAMS_LANDINGS</t>
+  </si>
+  <si>
+    <t>Scallop fleet designation, if applicable</t>
+  </si>
+  <si>
+    <t>Vessel Trip Report Serial Number</t>
+  </si>
+  <si>
+    <t>Year trip took place</t>
+  </si>
+  <si>
+    <t>Month of year trip took place</t>
+  </si>
+  <si>
+    <t>CAMS meshgroup: sm, lg, xlg, na</t>
   </si>
 </sst>
 </file>
@@ -826,490 +874,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1337,236 +1396,236 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -1590,164 +1649,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1755,10 +1814,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1766,10 +1825,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1777,10 +1836,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1788,120 +1847,120 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1909,76 +1968,76 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1986,211 +2045,211 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CAMS/DOC/bg_obs_catch_columns.xlsx
+++ b/CAMS/DOC/bg_obs_catch_columns.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="obs_catch" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,14 +1637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,7 +1663,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C2" t="s">
@@ -1673,7 +1674,7 @@
       <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C3" t="s">
@@ -1684,7 +1685,7 @@
       <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C4" t="s">
@@ -1695,7 +1696,7 @@
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C5" t="s">
@@ -1706,7 +1707,7 @@
       <c r="A6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C6" t="s">
@@ -1717,7 +1718,7 @@
       <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C7" t="s">
@@ -1728,7 +1729,7 @@
       <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C8" t="s">
@@ -1739,7 +1740,7 @@
       <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C9" t="s">
@@ -1750,7 +1751,7 @@
       <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C10" t="s">
@@ -1761,7 +1762,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C11" t="s">
@@ -1772,7 +1773,7 @@
       <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C12" t="s">
@@ -1783,7 +1784,7 @@
       <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C13" t="s">
@@ -1794,7 +1795,7 @@
       <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C14" t="s">
@@ -1805,7 +1806,7 @@
       <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C15" t="s">
@@ -1816,7 +1817,7 @@
       <c r="A16" t="s">
         <v>95</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C16" t="s">
@@ -1827,7 +1828,7 @@
       <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C17" t="s">
@@ -1838,7 +1839,7 @@
       <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C18" t="s">
@@ -1849,7 +1850,7 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C19" t="s">
@@ -1860,7 +1861,7 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C20" t="s">
@@ -1871,7 +1872,7 @@
       <c r="A21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C21" t="s">
@@ -1882,7 +1883,7 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C22" t="s">
@@ -1893,7 +1894,7 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C23" t="s">
@@ -1904,7 +1905,7 @@
       <c r="A24" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C24" t="s">
@@ -1915,7 +1916,7 @@
       <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C25" t="s">
@@ -1926,7 +1927,7 @@
       <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C26" t="s">
@@ -1937,7 +1938,7 @@
       <c r="A27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C27" t="s">
@@ -1948,7 +1949,7 @@
       <c r="A28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C28" t="s">
@@ -1959,7 +1960,7 @@
       <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C29" t="s">
@@ -1970,7 +1971,7 @@
       <c r="A30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C30" t="s">
@@ -1981,7 +1982,7 @@
       <c r="A31" t="s">
         <v>105</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C31" t="s">
@@ -1992,7 +1993,7 @@
       <c r="A32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C32" t="s">
@@ -2003,7 +2004,7 @@
       <c r="A33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C33" t="s">
@@ -2014,7 +2015,7 @@
       <c r="A34" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C34" t="s">
@@ -2025,7 +2026,7 @@
       <c r="A35" t="s">
         <v>110</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C35" t="s">
@@ -2036,7 +2037,7 @@
       <c r="A36" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C36" t="s">
@@ -2047,7 +2048,7 @@
       <c r="A37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C37" t="s">
@@ -2058,7 +2059,7 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C38" t="s">
@@ -2069,7 +2070,7 @@
       <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C39" t="s">
@@ -2080,7 +2081,7 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C40" t="s">
@@ -2091,7 +2092,7 @@
       <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C41" t="s">
@@ -2102,7 +2103,7 @@
       <c r="A42" t="s">
         <v>115</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C42" t="s">
@@ -2113,7 +2114,7 @@
       <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C43" t="s">
@@ -2124,7 +2125,7 @@
       <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C44" t="s">
@@ -2135,7 +2136,7 @@
       <c r="A45" t="s">
         <v>119</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C45" t="s">
@@ -2146,7 +2147,7 @@
       <c r="A46" t="s">
         <v>120</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C46" t="s">
@@ -2168,7 +2169,7 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C48" t="s">
@@ -2246,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
